--- a/submit/report/卒業研究/設計書/機能一覧.xlsx
+++ b/submit/report/卒業研究/設計書/機能一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcgam\Desktop\卒研\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcgam\Desktop\卒研\設計書２\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B585838D-F6A0-4CC2-A7B2-DE839C79B651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E0A68EF-3AFD-4BDA-A3AD-352ABF269410}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDF1D75-0C10-4136-947F-735A43200F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" tabRatio="888" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1536" windowWidth="23040" windowHeight="7344" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タスク管理(生徒)" sheetId="166" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -56,6 +56,463 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>作成者</t>
+  </si>
+  <si>
+    <t>修正者</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブシステム名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正日</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区分</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大区分</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小区分</t>
+    <rPh sb="1" eb="3">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ユーザー登録</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1 ID登録</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインに使用するIDを登録する</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2 パスワード登録</t>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインに使用するパスワードを登録する</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス・名前などの情報を登録する</t>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.1 ID認証</t>
+    <rPh sb="6" eb="8">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録で登録したIDと一致しているかを確認する</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.2 パスワード認証</t>
+    <rPh sb="9" eb="11">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録で登録したパスワードと一致しているかを確認する</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.3 認証成功</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDとパスワードが共に一致している場合、ホームへ遷移させる</t>
+    <rPh sb="9" eb="10">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.4 認証失敗</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDとパスワードが一致していなかった場合、もう一度入力するよう促す</t>
+    <rPh sb="9" eb="11">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ウナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.課題</t>
+    <rPh sb="2" eb="4">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.1 提出</t>
+    <rPh sb="4" eb="6">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>office365のforms機能を使用する</t>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.2 提出確認</t>
+    <rPh sb="4" eb="8">
+      <t>テイシュツカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題を提出したかどうかを確認する</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.3 受け取り</t>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題の受け取りや、参考ファイルを受け取る</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.3 プロフィール作成</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.4 課題表示(一覧)</t>
+    <rPh sb="4" eb="8">
+      <t>カダイヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.5 課題表示(日ごと)</t>
+    <rPh sb="4" eb="8">
+      <t>カダイヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その日が期限の課題の提出状況・科目名・簡単な課題詳細・担当講師を一覧表示させる</t>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>テイシュツジョウキョウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>カモクメイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>タントウコウシ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題の期限日・提出状況を一目でわかる</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>キゲンビ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.6 課題表示(教科ごと)</t>
+    <rPh sb="4" eb="8">
+      <t>カダイヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>科目名・担当講師・課題の説明・提出リンク・期限日・チャットを表示する</t>
+    <rPh sb="0" eb="3">
+      <t>カモクメイ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>タントウコウシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>キゲンビ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.7 チャット機能</t>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各課題に対しての質問をチャット形式で聞くことができる</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>タスク管理(生徒)</t>
     <rPh sb="3" eb="5">
       <t>カンリ</t>
@@ -66,456 +523,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作成者</t>
-  </si>
-  <si>
-    <t>修正者</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サブシステム名</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成日</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正日</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>区分</t>
-    <rPh sb="0" eb="2">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能概要</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大区分</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小区分</t>
-    <rPh sb="1" eb="3">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.ユーザー登録</t>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.1 ID登録</t>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインに使用するIDを登録する</t>
-    <rPh sb="5" eb="7">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.2 パスワード登録</t>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインに使用するパスワードを登録する</t>
-    <rPh sb="5" eb="7">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.3 プロフィール作成</t>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クラス・名前などの情報を登録する</t>
-    <rPh sb="4" eb="6">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.1 ID認証</t>
-    <rPh sb="6" eb="8">
-      <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー登録で登録したIDと一致しているかを確認する</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.2 パスワード認証</t>
-    <rPh sb="9" eb="11">
-      <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー登録で登録したパスワードと一致しているかを確認する</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.3 認証成功</t>
-    <rPh sb="4" eb="6">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IDとパスワードが共に一致している場合、ホームへ遷移させる</t>
-    <rPh sb="9" eb="10">
-      <t>トモ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.4 認証失敗</t>
-    <rPh sb="4" eb="6">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IDとパスワードが一致していなかった場合、もう一度入力するよう促す</t>
-    <rPh sb="9" eb="11">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ウナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.課題</t>
-    <rPh sb="2" eb="4">
-      <t>カダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.1 提出</t>
-    <rPh sb="4" eb="6">
-      <t>テイシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>office365のforms機能を使用する</t>
-  </si>
-  <si>
-    <t>3.2 提出確認</t>
-    <rPh sb="4" eb="8">
-      <t>テイシュツカクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題を提出したかどうかを確認する</t>
-    <rPh sb="0" eb="2">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.3 受け取り</t>
-    <rPh sb="4" eb="5">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題の受け取りや、参考ファイルを受け取る</t>
-    <rPh sb="0" eb="2">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サンコウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.4 課題表示(一覧)</t>
-    <rPh sb="4" eb="8">
-      <t>カダイヒョウジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題の期限日・提出状況を一目でわかる</t>
-    <rPh sb="0" eb="2">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>キゲンビ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イチモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.5 課題表示(日ごと)</t>
-    <rPh sb="4" eb="8">
-      <t>カダイヒョウジ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>その日が期限の課題の提出状況・科目名・簡単な課題詳細・担当講師を一覧表示させる</t>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>テイシュツジョウキョウ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>カモクメイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンタン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="27" eb="31">
-      <t>タントウコウシ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.6 課題表示(教科ごと)</t>
-    <rPh sb="4" eb="8">
-      <t>カダイヒョウジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キョウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>科目名・担当講師・課題の説明・提出リンク・期限日・チャットを表示する</t>
-    <rPh sb="0" eb="3">
-      <t>カモクメイ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>タントウコウシ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>キゲンビ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.7 チャット機能</t>
-    <rPh sb="8" eb="10">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>各課題に対しての質問をチャット形式で聞くことができる</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タスク管理(教師)</t>
     <rPh sb="3" eb="5">
       <t>カンリ</t>
@@ -526,6 +533,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>先生には管理者権限(特殊な操作が可能)振れるようにする</t>
+    <rPh sb="0" eb="2">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="4" eb="9">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>1.3 先生側登録</t>
     <rPh sb="4" eb="7">
       <t>センセイガワ</t>
@@ -536,28 +565,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>先生には管理者権限(特殊な操作が可能)振れるようにする</t>
-    <rPh sb="0" eb="2">
-      <t>センセイ</t>
-    </rPh>
-    <rPh sb="4" eb="9">
-      <t>カンリシャケンゲン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トクシュ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3.1 科目設定</t>
     <rPh sb="4" eb="6">
       <t>カモク</t>
@@ -705,6 +712,30 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>科目追加</t>
+    <rPh sb="0" eb="4">
+      <t>カモクツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題一覧</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1131,6 +1162,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1140,6 +1180,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1209,6 +1258,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1227,11 +1291,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1242,80 +1333,20 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1671,150 +1702,150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="2.42578125" style="1"/>
+    <col min="1" max="16384" width="2.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="62" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="47" t="s">
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="54" t="s">
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="55" t="s">
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
+    </row>
+    <row r="2" spans="1:58" ht="18.75" customHeight="1">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="50"/>
-      <c r="BF1" s="50"/>
-    </row>
-    <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62" t="s">
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="55" t="s">
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="AW2" s="55"/>
-      <c r="AX2" s="55"/>
-      <c r="AY2" s="55"/>
-      <c r="AZ2" s="55"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="50"/>
-      <c r="BE2" s="50"/>
-      <c r="BF2" s="50"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="57"/>
+      <c r="BB2" s="57"/>
+      <c r="BC2" s="57"/>
+      <c r="BD2" s="57"/>
+      <c r="BE2" s="57"/>
+      <c r="BF2" s="57"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="2"/>
@@ -1836,708 +1867,708 @@
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:58" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="51" t="s">
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="41" t="s">
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="62"/>
+      <c r="AK4" s="62"/>
+      <c r="AL4" s="62"/>
+      <c r="AM4" s="62"/>
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="62"/>
+      <c r="AP4" s="62"/>
+      <c r="AQ4" s="62"/>
+      <c r="AR4" s="62"/>
+      <c r="AS4" s="62"/>
+      <c r="AT4" s="62"/>
+      <c r="AU4" s="62"/>
+      <c r="AV4" s="62"/>
+      <c r="AW4" s="62"/>
+      <c r="AX4" s="63"/>
+    </row>
+    <row r="5" spans="1:58" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="42"/>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="42"/>
-      <c r="AS4" s="42"/>
-      <c r="AT4" s="42"/>
-      <c r="AU4" s="42"/>
-      <c r="AV4" s="42"/>
-      <c r="AW4" s="42"/>
-      <c r="AX4" s="43"/>
-    </row>
-    <row r="5" spans="1:58" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="51" t="s">
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="46"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="64"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="64"/>
+      <c r="AL5" s="64"/>
+      <c r="AM5" s="64"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="64"/>
+      <c r="AP5" s="64"/>
+      <c r="AQ5" s="64"/>
+      <c r="AR5" s="64"/>
+      <c r="AS5" s="64"/>
+      <c r="AT5" s="64"/>
+      <c r="AU5" s="64"/>
+      <c r="AV5" s="64"/>
+      <c r="AW5" s="64"/>
+      <c r="AX5" s="53"/>
     </row>
     <row r="6" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="39"/>
       <c r="B6" s="40"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="25" t="s">
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="9"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="12"/>
     </row>
     <row r="7" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="39"/>
       <c r="B7" s="40"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="36" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="37"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="37"/>
-      <c r="AK7" s="37"/>
-      <c r="AL7" s="37"/>
-      <c r="AM7" s="37"/>
-      <c r="AN7" s="37"/>
-      <c r="AO7" s="37"/>
-      <c r="AP7" s="37"/>
-      <c r="AQ7" s="37"/>
-      <c r="AR7" s="37"/>
-      <c r="AS7" s="37"/>
-      <c r="AT7" s="37"/>
-      <c r="AU7" s="37"/>
-      <c r="AV7" s="37"/>
-      <c r="AW7" s="37"/>
-      <c r="AX7" s="38"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="15"/>
     </row>
     <row r="8" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="39"/>
       <c r="B8" s="40"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="37"/>
-      <c r="AN8" s="37"/>
-      <c r="AO8" s="37"/>
-      <c r="AP8" s="37"/>
-      <c r="AQ8" s="37"/>
-      <c r="AR8" s="37"/>
-      <c r="AS8" s="37"/>
-      <c r="AT8" s="37"/>
-      <c r="AU8" s="37"/>
-      <c r="AV8" s="37"/>
-      <c r="AW8" s="37"/>
-      <c r="AX8" s="38"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="15"/>
     </row>
     <row r="9" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="39"/>
       <c r="B9" s="40"/>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
-      <c r="AP9" s="8"/>
-      <c r="AQ9" s="8"/>
-      <c r="AR9" s="8"/>
-      <c r="AS9" s="8"/>
-      <c r="AT9" s="8"/>
-      <c r="AU9" s="8"/>
-      <c r="AV9" s="8"/>
-      <c r="AW9" s="8"/>
-      <c r="AX9" s="9"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="12"/>
     </row>
     <row r="10" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="39"/>
       <c r="B10" s="40"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="37"/>
-      <c r="AK10" s="37"/>
-      <c r="AL10" s="37"/>
-      <c r="AM10" s="37"/>
-      <c r="AN10" s="37"/>
-      <c r="AO10" s="37"/>
-      <c r="AP10" s="37"/>
-      <c r="AQ10" s="37"/>
-      <c r="AR10" s="37"/>
-      <c r="AS10" s="37"/>
-      <c r="AT10" s="37"/>
-      <c r="AU10" s="37"/>
-      <c r="AV10" s="37"/>
-      <c r="AW10" s="37"/>
-      <c r="AX10" s="38"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="15"/>
     </row>
     <row r="11" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="39"/>
       <c r="B11" s="40"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="37"/>
-      <c r="AM11" s="37"/>
-      <c r="AN11" s="37"/>
-      <c r="AO11" s="37"/>
-      <c r="AP11" s="37"/>
-      <c r="AQ11" s="37"/>
-      <c r="AR11" s="37"/>
-      <c r="AS11" s="37"/>
-      <c r="AT11" s="37"/>
-      <c r="AU11" s="37"/>
-      <c r="AV11" s="37"/>
-      <c r="AW11" s="37"/>
-      <c r="AX11" s="38"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="15"/>
     </row>
     <row r="12" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="39"/>
       <c r="B12" s="40"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="23"/>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="23"/>
-      <c r="AJ12" s="23"/>
-      <c r="AK12" s="23"/>
-      <c r="AL12" s="23"/>
-      <c r="AM12" s="23"/>
-      <c r="AN12" s="23"/>
-      <c r="AO12" s="23"/>
-      <c r="AP12" s="23"/>
-      <c r="AQ12" s="23"/>
-      <c r="AR12" s="23"/>
-      <c r="AS12" s="23"/>
-      <c r="AT12" s="23"/>
-      <c r="AU12" s="23"/>
-      <c r="AV12" s="23"/>
-      <c r="AW12" s="23"/>
-      <c r="AX12" s="24"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="29"/>
+      <c r="AS12" s="29"/>
+      <c r="AT12" s="29"/>
+      <c r="AU12" s="29"/>
+      <c r="AV12" s="29"/>
+      <c r="AW12" s="29"/>
+      <c r="AX12" s="30"/>
     </row>
     <row r="13" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A13" s="39"/>
       <c r="B13" s="40"/>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="8"/>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="8"/>
-      <c r="AK13" s="8"/>
-      <c r="AL13" s="8"/>
-      <c r="AM13" s="8"/>
-      <c r="AN13" s="8"/>
-      <c r="AO13" s="8"/>
-      <c r="AP13" s="8"/>
-      <c r="AQ13" s="8"/>
-      <c r="AR13" s="8"/>
-      <c r="AS13" s="8"/>
-      <c r="AT13" s="8"/>
-      <c r="AU13" s="8"/>
-      <c r="AV13" s="8"/>
-      <c r="AW13" s="8"/>
-      <c r="AX13" s="9"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="11"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="11"/>
+      <c r="AX13" s="12"/>
     </row>
     <row r="14" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="39"/>
       <c r="B14" s="40"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="37"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="37"/>
-      <c r="AM14" s="37"/>
-      <c r="AN14" s="37"/>
-      <c r="AO14" s="37"/>
-      <c r="AP14" s="37"/>
-      <c r="AQ14" s="37"/>
-      <c r="AR14" s="37"/>
-      <c r="AS14" s="37"/>
-      <c r="AT14" s="37"/>
-      <c r="AU14" s="37"/>
-      <c r="AV14" s="37"/>
-      <c r="AW14" s="37"/>
-      <c r="AX14" s="38"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="15"/>
     </row>
     <row r="15" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="39"/>
       <c r="B15" s="40"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="37"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="37"/>
-      <c r="AQ15" s="37"/>
-      <c r="AR15" s="37"/>
-      <c r="AS15" s="37"/>
-      <c r="AT15" s="37"/>
-      <c r="AU15" s="37"/>
-      <c r="AV15" s="37"/>
-      <c r="AW15" s="37"/>
-      <c r="AX15" s="38"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="15"/>
     </row>
     <row r="16" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="68"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="49"/>
       <c r="S16" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -2569,7 +2600,7 @@
       <c r="AU16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="AW16" s="3"/>
-      <c r="AX16" s="29"/>
+      <c r="AX16" s="35"/>
     </row>
     <row r="17" spans="1:50" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="39"/>
@@ -2582,50 +2613,50 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="37"/>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="37"/>
-      <c r="AK17" s="37"/>
-      <c r="AL17" s="37"/>
-      <c r="AM17" s="37"/>
-      <c r="AN17" s="37"/>
-      <c r="AO17" s="37"/>
-      <c r="AP17" s="37"/>
-      <c r="AQ17" s="37"/>
-      <c r="AR17" s="37"/>
-      <c r="AS17" s="37"/>
-      <c r="AT17" s="37"/>
-      <c r="AU17" s="37"/>
-      <c r="AV17" s="37"/>
-      <c r="AW17" s="37"/>
-      <c r="AX17" s="38"/>
+      <c r="K17" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="15"/>
     </row>
     <row r="18" spans="1:50" ht="15" customHeight="1" thickBot="1">
       <c r="A18" s="39"/>
@@ -2638,130 +2669,130 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="59" t="s">
+      <c r="K18" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="34"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="34"/>
-      <c r="AK18" s="34"/>
-      <c r="AL18" s="34"/>
-      <c r="AM18" s="34"/>
-      <c r="AN18" s="34"/>
-      <c r="AO18" s="34"/>
-      <c r="AP18" s="34"/>
-      <c r="AQ18" s="34"/>
-      <c r="AR18" s="34"/>
-      <c r="AS18" s="34"/>
-      <c r="AT18" s="34"/>
-      <c r="AU18" s="34"/>
-      <c r="AV18" s="34"/>
-      <c r="AW18" s="34"/>
-      <c r="AX18" s="35"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="8"/>
+      <c r="AS18" s="8"/>
+      <c r="AT18" s="8"/>
+      <c r="AU18" s="8"/>
+      <c r="AV18" s="8"/>
+      <c r="AW18" s="8"/>
+      <c r="AX18" s="9"/>
     </row>
     <row r="19" spans="1:50" ht="15" customHeight="1" thickBot="1">
       <c r="A19" s="39"/>
       <c r="B19" s="40"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="63" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="31"/>
-      <c r="AI19" s="31"/>
-      <c r="AJ19" s="31"/>
-      <c r="AK19" s="31"/>
-      <c r="AL19" s="31"/>
-      <c r="AM19" s="31"/>
-      <c r="AN19" s="31"/>
-      <c r="AO19" s="31"/>
-      <c r="AP19" s="31"/>
-      <c r="AQ19" s="31"/>
-      <c r="AR19" s="31"/>
-      <c r="AS19" s="31"/>
-      <c r="AT19" s="31"/>
-      <c r="AU19" s="31"/>
-      <c r="AV19" s="31"/>
-      <c r="AW19" s="31"/>
-      <c r="AX19" s="32"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="37"/>
+      <c r="AI19" s="37"/>
+      <c r="AJ19" s="37"/>
+      <c r="AK19" s="37"/>
+      <c r="AL19" s="37"/>
+      <c r="AM19" s="37"/>
+      <c r="AN19" s="37"/>
+      <c r="AO19" s="37"/>
+      <c r="AP19" s="37"/>
+      <c r="AQ19" s="37"/>
+      <c r="AR19" s="37"/>
+      <c r="AS19" s="37"/>
+      <c r="AT19" s="37"/>
+      <c r="AU19" s="37"/>
+      <c r="AV19" s="37"/>
+      <c r="AW19" s="37"/>
+      <c r="AX19" s="38"/>
     </row>
     <row r="20" spans="1:50" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:50" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -2804,16 +2835,16 @@
       <c r="AX21" s="6"/>
     </row>
     <row r="22" spans="1:50" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:50" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="4"/>
@@ -2830,14 +2861,14 @@
     <row r="26" spans="1:50" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -2882,14 +2913,14 @@
     <row r="27" spans="1:50" ht="15" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -2934,14 +2965,14 @@
     <row r="28" spans="1:50" ht="15" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -3513,6 +3544,34 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="S4:AX5"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="U2:AI2"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A11:B11"/>
@@ -3522,37 +3581,9 @@
     <mergeCell ref="K16:R16"/>
     <mergeCell ref="K18:R18"/>
     <mergeCell ref="K14:R14"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="K17:R17"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="S4:AX5"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="U2:AI2"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AV1:AZ1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -3565,150 +3596,150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F2119B-1A3E-4737-8CFC-9AE2C8945162}">
   <dimension ref="A1:BF38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="2.42578125" style="1"/>
+    <col min="1" max="16384" width="2.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="62" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="47" t="s">
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="54" t="s">
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="55" t="s">
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
+    </row>
+    <row r="2" spans="1:58" ht="18.75" customHeight="1">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="50"/>
-      <c r="BF1" s="50"/>
-    </row>
-    <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62" t="s">
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="55" t="s">
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="AW2" s="55"/>
-      <c r="AX2" s="55"/>
-      <c r="AY2" s="55"/>
-      <c r="AZ2" s="55"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="50"/>
-      <c r="BE2" s="50"/>
-      <c r="BF2" s="50"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="57"/>
+      <c r="BB2" s="57"/>
+      <c r="BC2" s="57"/>
+      <c r="BD2" s="57"/>
+      <c r="BE2" s="57"/>
+      <c r="BF2" s="57"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="2"/>
@@ -3730,813 +3761,815 @@
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:58" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="51" t="s">
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="41" t="s">
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="62"/>
+      <c r="AK4" s="62"/>
+      <c r="AL4" s="62"/>
+      <c r="AM4" s="62"/>
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="62"/>
+      <c r="AP4" s="62"/>
+      <c r="AQ4" s="62"/>
+      <c r="AR4" s="62"/>
+      <c r="AS4" s="62"/>
+      <c r="AT4" s="62"/>
+      <c r="AU4" s="62"/>
+      <c r="AV4" s="62"/>
+      <c r="AW4" s="62"/>
+      <c r="AX4" s="63"/>
+    </row>
+    <row r="5" spans="1:58" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="42"/>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="42"/>
-      <c r="AS4" s="42"/>
-      <c r="AT4" s="42"/>
-      <c r="AU4" s="42"/>
-      <c r="AV4" s="42"/>
-      <c r="AW4" s="42"/>
-      <c r="AX4" s="43"/>
-    </row>
-    <row r="5" spans="1:58" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="51" t="s">
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="46"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="64"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="64"/>
+      <c r="AL5" s="64"/>
+      <c r="AM5" s="64"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="64"/>
+      <c r="AP5" s="64"/>
+      <c r="AQ5" s="64"/>
+      <c r="AR5" s="64"/>
+      <c r="AS5" s="64"/>
+      <c r="AT5" s="64"/>
+      <c r="AU5" s="64"/>
+      <c r="AV5" s="64"/>
+      <c r="AW5" s="64"/>
+      <c r="AX5" s="53"/>
     </row>
     <row r="6" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="39"/>
       <c r="B6" s="40"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="25" t="s">
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="9"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="12"/>
     </row>
     <row r="7" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="39"/>
       <c r="B7" s="40"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="36" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="37"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="37"/>
-      <c r="AK7" s="37"/>
-      <c r="AL7" s="37"/>
-      <c r="AM7" s="37"/>
-      <c r="AN7" s="37"/>
-      <c r="AO7" s="37"/>
-      <c r="AP7" s="37"/>
-      <c r="AQ7" s="37"/>
-      <c r="AR7" s="37"/>
-      <c r="AS7" s="37"/>
-      <c r="AT7" s="37"/>
-      <c r="AU7" s="37"/>
-      <c r="AV7" s="37"/>
-      <c r="AW7" s="37"/>
-      <c r="AX7" s="38"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="15"/>
     </row>
     <row r="8" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="39"/>
       <c r="B8" s="40"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="22" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="23"/>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="23"/>
-      <c r="AJ8" s="23"/>
-      <c r="AK8" s="23"/>
-      <c r="AL8" s="23"/>
-      <c r="AM8" s="23"/>
-      <c r="AN8" s="23"/>
-      <c r="AO8" s="23"/>
-      <c r="AP8" s="23"/>
-      <c r="AQ8" s="23"/>
-      <c r="AR8" s="23"/>
-      <c r="AS8" s="23"/>
-      <c r="AT8" s="23"/>
-      <c r="AU8" s="23"/>
-      <c r="AV8" s="23"/>
-      <c r="AW8" s="23"/>
-      <c r="AX8" s="24"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="29"/>
+      <c r="AQ8" s="29"/>
+      <c r="AR8" s="29"/>
+      <c r="AS8" s="29"/>
+      <c r="AT8" s="29"/>
+      <c r="AU8" s="29"/>
+      <c r="AV8" s="29"/>
+      <c r="AW8" s="29"/>
+      <c r="AX8" s="30"/>
     </row>
     <row r="9" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="39"/>
       <c r="B9" s="40"/>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
-      <c r="AP9" s="8"/>
-      <c r="AQ9" s="8"/>
-      <c r="AR9" s="8"/>
-      <c r="AS9" s="8"/>
-      <c r="AT9" s="8"/>
-      <c r="AU9" s="8"/>
-      <c r="AV9" s="8"/>
-      <c r="AW9" s="8"/>
-      <c r="AX9" s="9"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="12"/>
     </row>
     <row r="10" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="39"/>
       <c r="B10" s="40"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="37"/>
-      <c r="AK10" s="37"/>
-      <c r="AL10" s="37"/>
-      <c r="AM10" s="37"/>
-      <c r="AN10" s="37"/>
-      <c r="AO10" s="37"/>
-      <c r="AP10" s="37"/>
-      <c r="AQ10" s="37"/>
-      <c r="AR10" s="37"/>
-      <c r="AS10" s="37"/>
-      <c r="AT10" s="37"/>
-      <c r="AU10" s="37"/>
-      <c r="AV10" s="37"/>
-      <c r="AW10" s="37"/>
-      <c r="AX10" s="38"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="15"/>
     </row>
     <row r="11" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="39"/>
       <c r="B11" s="40"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="37"/>
-      <c r="AM11" s="37"/>
-      <c r="AN11" s="37"/>
-      <c r="AO11" s="37"/>
-      <c r="AP11" s="37"/>
-      <c r="AQ11" s="37"/>
-      <c r="AR11" s="37"/>
-      <c r="AS11" s="37"/>
-      <c r="AT11" s="37"/>
-      <c r="AU11" s="37"/>
-      <c r="AV11" s="37"/>
-      <c r="AW11" s="37"/>
-      <c r="AX11" s="38"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="15"/>
     </row>
     <row r="12" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="39"/>
       <c r="B12" s="40"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="23"/>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="23"/>
-      <c r="AJ12" s="23"/>
-      <c r="AK12" s="23"/>
-      <c r="AL12" s="23"/>
-      <c r="AM12" s="23"/>
-      <c r="AN12" s="23"/>
-      <c r="AO12" s="23"/>
-      <c r="AP12" s="23"/>
-      <c r="AQ12" s="23"/>
-      <c r="AR12" s="23"/>
-      <c r="AS12" s="23"/>
-      <c r="AT12" s="23"/>
-      <c r="AU12" s="23"/>
-      <c r="AV12" s="23"/>
-      <c r="AW12" s="23"/>
-      <c r="AX12" s="24"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="29"/>
+      <c r="AS12" s="29"/>
+      <c r="AT12" s="29"/>
+      <c r="AU12" s="29"/>
+      <c r="AV12" s="29"/>
+      <c r="AW12" s="29"/>
+      <c r="AX12" s="30"/>
     </row>
     <row r="13" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A13" s="39"/>
       <c r="B13" s="40"/>
-      <c r="C13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="7" t="s">
+      <c r="C13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="7" t="s">
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="8"/>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="8"/>
-      <c r="AK13" s="8"/>
-      <c r="AL13" s="8"/>
-      <c r="AM13" s="8"/>
-      <c r="AN13" s="8"/>
-      <c r="AO13" s="8"/>
-      <c r="AP13" s="8"/>
-      <c r="AQ13" s="8"/>
-      <c r="AR13" s="8"/>
-      <c r="AS13" s="8"/>
-      <c r="AT13" s="8"/>
-      <c r="AU13" s="8"/>
-      <c r="AV13" s="8"/>
-      <c r="AW13" s="8"/>
-      <c r="AX13" s="9"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="11"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="11"/>
+      <c r="AX13" s="12"/>
     </row>
     <row r="14" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="39"/>
       <c r="B14" s="40"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="36" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="36" t="s">
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="37"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="37"/>
-      <c r="AM14" s="37"/>
-      <c r="AN14" s="37"/>
-      <c r="AO14" s="37"/>
-      <c r="AP14" s="37"/>
-      <c r="AQ14" s="37"/>
-      <c r="AR14" s="37"/>
-      <c r="AS14" s="37"/>
-      <c r="AT14" s="37"/>
-      <c r="AU14" s="37"/>
-      <c r="AV14" s="37"/>
-      <c r="AW14" s="37"/>
-      <c r="AX14" s="38"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="15"/>
     </row>
     <row r="15" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="39"/>
       <c r="B15" s="40"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="36" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="36" t="s">
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="37"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="37"/>
-      <c r="AQ15" s="37"/>
-      <c r="AR15" s="37"/>
-      <c r="AS15" s="37"/>
-      <c r="AT15" s="37"/>
-      <c r="AU15" s="37"/>
-      <c r="AV15" s="37"/>
-      <c r="AW15" s="37"/>
-      <c r="AX15" s="38"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="15"/>
     </row>
     <row r="16" spans="1:58" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="36" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="36" t="s">
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="37"/>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="37"/>
-      <c r="AM16" s="37"/>
-      <c r="AN16" s="37"/>
-      <c r="AO16" s="37"/>
-      <c r="AP16" s="37"/>
-      <c r="AQ16" s="37"/>
-      <c r="AR16" s="37"/>
-      <c r="AS16" s="37"/>
-      <c r="AT16" s="37"/>
-      <c r="AU16" s="37"/>
-      <c r="AV16" s="37"/>
-      <c r="AW16" s="37"/>
-      <c r="AX16" s="38"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="14"/>
+      <c r="AV16" s="14"/>
+      <c r="AW16" s="14"/>
+      <c r="AX16" s="15"/>
     </row>
     <row r="17" spans="1:50" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="10" t="s">
+      <c r="A17" s="50"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="10" t="s">
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="11"/>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="11"/>
-      <c r="AR17" s="11"/>
-      <c r="AS17" s="11"/>
-      <c r="AT17" s="11"/>
-      <c r="AU17" s="11"/>
-      <c r="AV17" s="11"/>
-      <c r="AW17" s="11"/>
-      <c r="AX17" s="12"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="17"/>
+      <c r="AM17" s="17"/>
+      <c r="AN17" s="17"/>
+      <c r="AO17" s="17"/>
+      <c r="AP17" s="17"/>
+      <c r="AQ17" s="17"/>
+      <c r="AR17" s="17"/>
+      <c r="AS17" s="17"/>
+      <c r="AT17" s="17"/>
+      <c r="AU17" s="17"/>
+      <c r="AV17" s="17"/>
+      <c r="AW17" s="17"/>
+      <c r="AX17" s="18"/>
     </row>
     <row r="18" spans="1:50" ht="15" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="69"/>
     </row>
     <row r="19" spans="1:50" ht="15" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="6"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
@@ -4578,17 +4611,19 @@
       <c r="AX19" s="6"/>
     </row>
     <row r="20" spans="1:50" ht="15" customHeight="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="6"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -4630,8 +4665,8 @@
       <c r="AX20" s="6"/>
     </row>
     <row r="21" spans="1:50" ht="15" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -4640,7 +4675,9 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -4682,8 +4719,8 @@
       <c r="AX21" s="3"/>
     </row>
     <row r="22" spans="1:50" ht="15" customHeight="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -4736,14 +4773,14 @@
     <row r="23" spans="1:50" ht="15" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -4788,14 +4825,14 @@
     <row r="24" spans="1:50" ht="15" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -4840,14 +4877,14 @@
     <row r="25" spans="1:50" ht="15" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -5575,19 +5612,15 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C4:R4"/>
     <mergeCell ref="S4:AX5"/>
@@ -5598,19 +5631,23 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>